--- a/document/Tasklist.xlsx
+++ b/document/Tasklist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Description</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Sample data tool</t>
+  </si>
+  <si>
+    <t>Real Effort</t>
   </si>
 </sst>
 </file>
@@ -413,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,9 +430,10 @@
     <col min="4" max="4" width="9.140625" style="2"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -445,8 +449,11 @@
       <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -463,7 +470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -480,7 +487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -497,7 +504,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -514,7 +521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>

--- a/document/Tasklist.xlsx
+++ b/document/Tasklist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="3960" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Description</t>
   </si>
@@ -22,9 +22,6 @@
     <t>Complete ViewModels and View Structure for Problem</t>
   </si>
   <si>
-    <t>Effort</t>
-  </si>
-  <si>
     <t>DALs that might be used in Problem Area &amp; Unit Test Cases</t>
   </si>
   <si>
@@ -55,18 +52,45 @@
     <t>-</t>
   </si>
   <si>
-    <t>Sample data tool</t>
-  </si>
-  <si>
     <t>Real Effort</t>
+  </si>
+  <si>
+    <t>Sample data</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Effective</t>
+  </si>
+  <si>
+    <t>Es Effort</t>
+  </si>
+  <si>
+    <t>Research AJAX for Problem Detail Page View</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -88,7 +112,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -96,15 +120,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -112,12 +149,25 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF76B531"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -416,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,115 +477,198 @@
     <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="56.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>41853</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="4">
+        <f>D2/F2</f>
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>41853</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>41853</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2">
-        <v>2</v>
+      <c r="D3" s="1">
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>1.5</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" ref="H3:H7" si="0">D3/F3</f>
+        <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>41853</v>
       </c>
       <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
         <v>3</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>41853</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
         <v>7</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>41884</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="6" tint="0.79998168889431442"/>
+        <color rgb="FF0070C0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/document/Tasklist.xlsx
+++ b/document/Tasklist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Description</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>Research AJAX for Problem Detail Page View</t>
+  </si>
+  <si>
+    <t>CANCELLED</t>
   </si>
 </sst>
 </file>
@@ -469,7 +472,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,6 +655,9 @@
       <c r="E7" t="s">
         <v>9</v>
       </c>
+      <c r="G7" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H7" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
